--- a/Documents/Reports/Filters.xlsx
+++ b/Documents/Reports/Filters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="11880" windowHeight="5685"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="37">
   <si>
     <t>Тип пропусков</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>Отдел</t>
+  </si>
+  <si>
+    <t>СКД Зоны</t>
+  </si>
+  <si>
+    <t>Discret</t>
+  </si>
+  <si>
+    <t>ScheduleSchema</t>
+  </si>
+  <si>
+    <t>Doors</t>
   </si>
 </sst>
 </file>
@@ -232,7 +244,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -245,9 +257,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -285,7 +297,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -357,7 +369,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -531,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T17"/>
+  <dimension ref="A2:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1437,6 +1449,30 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="J19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Reports/Filters.xlsx
+++ b/Documents/Reports/Filters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="34">
   <si>
     <t>Тип пропусков</t>
   </si>
@@ -115,13 +115,16 @@
   </si>
   <si>
     <t>Отдел</t>
+  </si>
+  <si>
+    <t>дата истечения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,8 +160,23 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,6 +186,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -199,7 +223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -229,6 +253,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -531,15 +564,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T17"/>
+  <dimension ref="A2:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="N13" sqref="N13:O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="30" width="8.7109375" style="1" customWidth="1"/>
     <col min="31" max="16384" width="11.7109375" style="1"/>
   </cols>
@@ -552,7 +585,7 @@
       <c r="C2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -567,10 +600,10 @@
       <c r="H2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -588,7 +621,7 @@
       <c r="O2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="14" t="s">
         <v>26</v>
       </c>
       <c r="Q2" s="9" t="s">
@@ -599,7 +632,7 @@
       <c r="T2" s="7"/>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -655,7 +688,7 @@
       <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -711,7 +744,7 @@
       <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -767,7 +800,7 @@
       <c r="T5" s="8"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -823,7 +856,7 @@
       <c r="T6" s="8"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -879,7 +912,7 @@
       <c r="T7" s="8"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -935,7 +968,7 @@
       <c r="T8" s="8"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -991,7 +1024,7 @@
       <c r="T9" s="8"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1103,7 +1136,7 @@
       <c r="T11" s="8"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1215,7 +1248,7 @@
       <c r="T13" s="8"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1383,7 +1416,7 @@
       <c r="T16" s="8"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1437,6 +1470,11 @@
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
       <c r="T17" s="8"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Reports/Filters.xlsx
+++ b/Documents/Reports/Filters.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="11880" windowHeight="5685"/>
+    <workbookView xWindow="120" yWindow="150" windowWidth="11880" windowHeight="5625"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="36">
   <si>
     <t>Тип пропусков</t>
   </si>
@@ -108,16 +108,22 @@
     <t>424. Справка по отработанному времени</t>
   </si>
   <si>
-    <t>432. Список устройств</t>
-  </si>
-  <si>
     <t>Контрллеры</t>
   </si>
   <si>
     <t>Отдел</t>
   </si>
   <si>
-    <t>дата истечения</t>
+    <t>Архивные данные</t>
+  </si>
+  <si>
+    <t>Шаблон</t>
+  </si>
+  <si>
+    <t>Data Access</t>
+  </si>
+  <si>
+    <t>+/-</t>
   </si>
 </sst>
 </file>
@@ -223,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -263,9 +269,12 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -278,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -318,7 +327,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -390,7 +399,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -564,108 +573,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T21"/>
+  <dimension ref="A2:W16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:O13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="30" width="8.7109375" style="1" customWidth="1"/>
-    <col min="31" max="16384" width="11.7109375" style="1"/>
+    <col min="2" max="3" width="8.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="33" width="8.7109375" style="1" customWidth="1"/>
+    <col min="34" max="16384" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="I2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="L2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="M2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="O2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="R2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="S2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
+      <c r="T2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>19</v>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2" t="s">
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="2" t="s">
@@ -683,46 +703,55 @@
       <c r="Q3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
+      <c r="R3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
+      <c r="B4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>20</v>
+      <c r="J4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>20</v>
@@ -739,28 +768,37 @@
       <c r="Q4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
+      <c r="R4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>20</v>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>19</v>
@@ -768,20 +806,20 @@
       <c r="H5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>20</v>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="N5" s="2" t="s">
         <v>20</v>
@@ -795,45 +833,54 @@
       <c r="Q5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+      <c r="R5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>19</v>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="2" t="s">
+      <c r="H6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="2" t="s">
@@ -851,45 +898,54 @@
       <c r="Q6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
+      <c r="R6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="2" t="s">
+      <c r="J7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="M7" s="2" t="s">
@@ -907,31 +963,40 @@
       <c r="Q7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
+      <c r="R7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>19</v>
+      <c r="B8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>19</v>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>19</v>
@@ -939,14 +1004,14 @@
       <c r="I8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>20</v>
+      <c r="J8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>20</v>
@@ -963,52 +1028,61 @@
       <c r="Q8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
+      <c r="R8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>19</v>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="3" t="s">
+      <c r="D9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>20</v>
+      <c r="I9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>20</v>
@@ -1019,11 +1093,20 @@
       <c r="Q9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
+      <c r="R9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>14</v>
       </c>
@@ -1033,35 +1116,35 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>19</v>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>20</v>
+      <c r="I10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="N10" s="2" t="s">
         <v>20</v>
@@ -1075,46 +1158,55 @@
       <c r="Q10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
+      <c r="R10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>19</v>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>19</v>
+      <c r="D11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>19</v>
+      <c r="H11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>20</v>
@@ -1122,8 +1214,8 @@
       <c r="N11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>20</v>
+      <c r="O11" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>20</v>
@@ -1131,11 +1223,20 @@
       <c r="Q11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
+      <c r="R11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -1148,32 +1249,32 @@
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="4" t="s">
-        <v>19</v>
+      <c r="E12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="N12" s="2" t="s">
         <v>20</v>
@@ -1181,28 +1282,37 @@
       <c r="O12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="2" t="s">
-        <v>20</v>
+      <c r="P12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="Q12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
+      <c r="R12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>19</v>
+      <c r="B13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>20</v>
+      <c r="D13" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1231,43 +1341,52 @@
       <c r="M13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
+      <c r="N13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>19</v>
+      <c r="B14" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>19</v>
+      <c r="D14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>19</v>
@@ -1275,17 +1394,17 @@
       <c r="I14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>19</v>
+      <c r="J14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="N14" s="2" t="s">
         <v>20</v>
@@ -1293,22 +1412,31 @@
       <c r="O14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="2" t="s">
-        <v>20</v>
+      <c r="P14" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="Q14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
+      <c r="R14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
+      <c r="B15" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -1319,23 +1447,23 @@
       <c r="E15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>19</v>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>20</v>
+      <c r="I15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>20</v>
@@ -1355,11 +1483,20 @@
       <c r="Q15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
+      <c r="R15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
@@ -1369,29 +1506,29 @@
       <c r="C16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>19</v>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>20</v>
+      <c r="I16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>20</v>
@@ -1411,70 +1548,18 @@
       <c r="Q16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="E21" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="R16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Reports/Filters.xlsx
+++ b/Documents/Reports/Filters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="150" windowWidth="11880" windowHeight="5625"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="35">
   <si>
     <t>Тип пропусков</t>
   </si>
@@ -106,9 +106,6 @@
   </si>
   <si>
     <t>424. Справка по отработанному времени</t>
-  </si>
-  <si>
-    <t>Контрллеры</t>
   </si>
   <si>
     <t>Отдел</t>
@@ -274,7 +271,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -287,9 +284,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -327,7 +324,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -399,7 +396,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -573,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W16"/>
+  <dimension ref="A2:V16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -584,23 +581,23 @@
     <col min="1" max="1" width="50.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="33" width="8.7109375" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="11.7109375" style="1"/>
+    <col min="5" max="32" width="8.7109375" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>21</v>
@@ -612,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>2</v>
@@ -626,10 +623,10 @@
       <c r="M2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P2" s="9" t="s">
@@ -644,14 +641,11 @@
       <c r="S2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>30</v>
-      </c>
+      <c r="T2" s="7"/>
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -709,14 +703,11 @@
       <c r="S3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T3" s="8"/>
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -774,14 +765,11 @@
       <c r="S4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T4" s="8"/>
       <c r="U4" s="8"/>
       <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
@@ -839,14 +827,11 @@
       <c r="S5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T5" s="8"/>
       <c r="U5" s="8"/>
       <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>9</v>
       </c>
@@ -904,14 +889,11 @@
       <c r="S6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T6" s="8"/>
       <c r="U6" s="8"/>
       <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>10</v>
       </c>
@@ -969,14 +951,11 @@
       <c r="S7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T7" s="8"/>
       <c r="U7" s="8"/>
       <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
@@ -1034,15 +1013,12 @@
       <c r="S8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T8" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T8" s="8"/>
       <c r="U8" s="8"/>
       <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1099,15 +1075,12 @@
       <c r="S9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T9" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T9" s="8"/>
       <c r="U9" s="8"/>
       <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1164,15 +1137,12 @@
       <c r="S10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T10" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T10" s="8"/>
       <c r="U10" s="8"/>
       <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -1229,14 +1199,11 @@
       <c r="S11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T11" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T11" s="8"/>
       <c r="U11" s="8"/>
       <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>17</v>
       </c>
@@ -1294,14 +1261,11 @@
       <c r="S12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T12" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T12" s="8"/>
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
@@ -1359,14 +1323,11 @@
       <c r="S13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T13" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T13" s="8"/>
       <c r="U13" s="8"/>
       <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>27</v>
       </c>
@@ -1424,19 +1385,16 @@
       <c r="S14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T14" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T14" s="8"/>
       <c r="U14" s="8"/>
       <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -1489,14 +1447,11 @@
       <c r="S15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T15" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T15" s="8"/>
       <c r="U15" s="8"/>
       <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
@@ -1554,12 +1509,9 @@
       <c r="S16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T16" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="T16" s="8"/>
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Reports/Filters.xlsx
+++ b/Documents/Reports/Filters.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="150" windowWidth="11880" windowHeight="5625"/>
+    <workbookView xWindow="120" yWindow="210" windowWidth="11880" windowHeight="5565"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="34">
   <si>
     <t>Тип пропусков</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>Объекты СКД</t>
-  </si>
-  <si>
-    <t>Пользователи</t>
   </si>
   <si>
     <t>402. Отчет о маршруте сотрудника/посетителя</t>
@@ -127,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,14 +167,6 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -194,7 +183,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -226,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -248,30 +237,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -284,9 +264,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -324,7 +304,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -396,7 +376,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -570,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V16"/>
+  <dimension ref="A2:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="H16" sqref="H16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -581,23 +561,23 @@
     <col min="1" max="1" width="50.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="32" width="8.7109375" style="1" customWidth="1"/>
-    <col min="33" max="16384" width="11.7109375" style="1"/>
+    <col min="5" max="31" width="8.7109375" style="1" customWidth="1"/>
+    <col min="32" max="16384" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>21</v>
@@ -609,7 +589,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>2</v>
@@ -629,24 +609,21 @@
       <c r="O2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="9" t="s">
+      <c r="Q2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="14" t="s">
-        <v>26</v>
-      </c>
+      <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -700,15 +677,12 @@
       <c r="R3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S3" s="8"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -762,15 +736,12 @@
       <c r="R4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S4" s="8"/>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -824,15 +795,12 @@
       <c r="R5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S5" s="8"/>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -886,15 +854,12 @@
       <c r="R6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S6" s="8"/>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -948,15 +913,12 @@
       <c r="R7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S7" s="8"/>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1010,18 +972,15 @@
       <c r="R8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S8" s="8"/>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -1072,18 +1031,15 @@
       <c r="R9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S9" s="8"/>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -1134,18 +1090,15 @@
       <c r="R10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S10" s="8"/>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -1196,18 +1149,15 @@
       <c r="R11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S11" s="8"/>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -1258,18 +1208,15 @@
       <c r="R12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S12" s="8"/>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -1320,18 +1267,15 @@
       <c r="R13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S13" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="S13" s="8"/>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -1382,19 +1326,16 @@
       <c r="R14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S14" s="8"/>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>34</v>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -1444,16 +1385,13 @@
       <c r="R15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S15" s="8"/>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>29</v>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>19</v>
@@ -1506,12 +1444,9 @@
       <c r="R16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="S16" s="8"/>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Reports/Filters.xlsx
+++ b/Documents/Reports/Filters.xlsx
@@ -168,7 +168,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -184,6 +184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -248,6 +254,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -553,7 +562,7 @@
   <dimension ref="A2:U16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16:K16"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -980,8 +989,8 @@
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>20</v>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
@@ -1039,8 +1048,8 @@
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>20</v>
+      <c r="B10" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
@@ -1095,7 +1104,7 @@
       <c r="U10" s="8"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -1157,8 +1166,8 @@
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>20</v>
+      <c r="B12" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
@@ -1216,8 +1225,8 @@
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>20</v>
+      <c r="B13" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>20</v>
@@ -1272,7 +1281,7 @@
       <c r="U13" s="8"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1331,7 +1340,7 @@
       <c r="U14" s="8"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="11" t="s">

--- a/Documents/Reports/Filters.xlsx
+++ b/Documents/Reports/Filters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="210" windowWidth="11880" windowHeight="5565"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="35">
   <si>
     <t>Тип пропусков</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>+/-</t>
+  </si>
+  <si>
+    <t>График СКД</t>
   </si>
 </sst>
 </file>
@@ -168,7 +171,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +181,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -252,15 +249,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -273,9 +267,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -313,7 +307,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -385,7 +379,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -559,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U16"/>
+  <dimension ref="A2:V29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -570,11 +564,11 @@
     <col min="1" max="1" width="50.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="8.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="31" width="8.7109375" style="1" customWidth="1"/>
-    <col min="32" max="16384" width="11.7109375" style="1"/>
+    <col min="5" max="32" width="8.7109375" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>31</v>
@@ -613,25 +607,28 @@
         <v>8</v>
       </c>
       <c r="N2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="7" t="s">
+      <c r="Q2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="R2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="R2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="S2" s="7"/>
       <c r="T2" s="7"/>
       <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
@@ -686,11 +683,14 @@
       <c r="R3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="8"/>
+      <c r="S3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
@@ -745,11 +745,14 @@
       <c r="R4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="8"/>
+      <c r="S4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T4" s="8"/>
       <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -786,11 +789,11 @@
       <c r="L5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>20</v>
+      <c r="M5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>20</v>
@@ -804,11 +807,14 @@
       <c r="R5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S5" s="8"/>
+      <c r="S5" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T5" s="8"/>
       <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
@@ -863,11 +869,14 @@
       <c r="R6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="8"/>
+      <c r="S6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T6" s="8"/>
       <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
@@ -922,11 +931,14 @@
       <c r="R7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S7" s="8"/>
+      <c r="S7" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T7" s="8"/>
       <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>11</v>
       </c>
@@ -981,11 +993,14 @@
       <c r="R8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="8"/>
+      <c r="S8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T8" s="8"/>
       <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
@@ -1025,11 +1040,11 @@
       <c r="M9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>20</v>
+      <c r="N9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>20</v>
@@ -1040,11 +1055,14 @@
       <c r="R9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S9" s="8"/>
+      <c r="S9" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T9" s="8"/>
       <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
@@ -1099,16 +1117,19 @@
       <c r="R10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S10" s="8"/>
+      <c r="S10" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T10" s="8"/>
       <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>20</v>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
@@ -1146,11 +1167,11 @@
       <c r="N11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>20</v>
+      <c r="O11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="Q11" s="2" t="s">
         <v>20</v>
@@ -1158,11 +1179,14 @@
       <c r="R11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S11" s="8"/>
+      <c r="S11" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T11" s="8"/>
       <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>17</v>
       </c>
@@ -1208,20 +1232,23 @@
       <c r="O12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>20</v>
+      <c r="P12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="R12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S12" s="8"/>
+      <c r="S12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T12" s="8"/>
       <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>23</v>
       </c>
@@ -1270,22 +1297,25 @@
       <c r="P13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q13" s="4" t="s">
-        <v>19</v>
+      <c r="Q13" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="S13" s="8"/>
+      <c r="S13" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="T13" s="8"/>
       <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>20</v>
+      <c r="B14" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>20</v>
@@ -1326,21 +1356,24 @@
       <c r="O14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>20</v>
+      <c r="P14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S14" s="8"/>
+      <c r="S14" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T14" s="8"/>
       <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -1394,11 +1427,14 @@
       <c r="R15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S15" s="8"/>
+      <c r="S15" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T15" s="8"/>
       <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>28</v>
       </c>
@@ -1453,9 +1489,15 @@
       <c r="R16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="S16" s="8"/>
+      <c r="S16" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="T16" s="8"/>
       <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Reports/Filters.xlsx
+++ b/Documents/Reports/Filters.xlsx
@@ -218,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -250,6 +250,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V29"/>
+  <dimension ref="A2:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1496,8 +1500,29 @@
       <c r="U16" s="8"/>
       <c r="V16" s="8"/>
     </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="13"/>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="13"/>
+    </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="9"/>
+      <c r="C29" s="14"/>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="13"/>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Reports/Filters.xlsx
+++ b/Documents/Reports/Filters.xlsx
@@ -127,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +158,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -218,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -241,9 +234,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,7 +550,7 @@
   <dimension ref="A2:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -633,7 +623,7 @@
       <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -819,7 +809,7 @@
       <c r="V5" s="8"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -881,7 +871,7 @@
       <c r="V6" s="8"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1129,7 +1119,7 @@
       <c r="V10" s="8"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1191,7 +1181,7 @@
       <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1315,7 +1305,7 @@
       <c r="V13" s="8"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1377,10 +1367,10 @@
       <c r="V14" s="8"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1501,28 +1491,28 @@
       <c r="V16" s="8"/>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="13"/>
+      <c r="C25" s="12"/>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="13"/>
+      <c r="C26" s="12"/>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="13"/>
+      <c r="C27" s="12"/>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="13"/>
+      <c r="C28" s="12"/>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="14"/>
+      <c r="C29" s="13"/>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="13"/>
+      <c r="C30" s="12"/>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="13"/>
+      <c r="C31" s="12"/>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="13"/>
+      <c r="C32" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Reports/Filters.xlsx
+++ b/Documents/Reports/Filters.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="210" windowWidth="11880" windowHeight="5565"/>
+    <workbookView xWindow="120" yWindow="270" windowWidth="11880" windowHeight="5505"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="34">
   <si>
     <t>Тип пропусков</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Data Access</t>
-  </si>
-  <si>
-    <t>+/-</t>
   </si>
   <si>
     <t>График СКД</t>
@@ -152,12 +149,13 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
     </font>
     <font>
+      <b/>
+      <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -233,22 +231,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -261,9 +259,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -301,7 +299,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -373,7 +371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -550,7 +548,7 @@
   <dimension ref="A2:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -601,7 +599,7 @@
         <v>8</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>13</v>
@@ -623,7 +621,7 @@
       <c r="V2" s="7"/>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -685,7 +683,7 @@
       <c r="V3" s="8"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -747,7 +745,7 @@
       <c r="V4" s="8"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -809,7 +807,7 @@
       <c r="V5" s="8"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -871,7 +869,7 @@
       <c r="V6" s="8"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -933,7 +931,7 @@
       <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1181,7 +1179,7 @@
       <c r="V11" s="8"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1305,7 +1303,7 @@
       <c r="V13" s="8"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1367,11 +1365,11 @@
       <c r="V14" s="8"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>33</v>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
@@ -1491,28 +1489,28 @@
       <c r="V16" s="8"/>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="12"/>
+      <c r="C25" s="11"/>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="12"/>
+      <c r="C26" s="11"/>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="12"/>
+      <c r="C27" s="11"/>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="12"/>
+      <c r="C28" s="11"/>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="13"/>
+      <c r="C29" s="12"/>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="12"/>
+      <c r="C30" s="11"/>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="12"/>
+      <c r="C31" s="11"/>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Reports/Filters.xlsx
+++ b/Documents/Reports/Filters.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="270" windowWidth="11880" windowHeight="5505"/>
@@ -154,7 +154,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
       <i/>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -246,7 +245,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -259,9 +258,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -299,7 +298,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -371,7 +370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -548,7 +547,7 @@
   <dimension ref="A2:V32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -931,7 +930,7 @@
       <c r="V7" s="8"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">

--- a/Documents/Reports/Filters.xlsx
+++ b/Documents/Reports/Filters.xlsx
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +155,13 @@
     </font>
     <font>
       <i/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -208,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -241,6 +248,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1240,7 +1250,7 @@
       <c r="V12" s="8"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="5" t="s">
